--- a/C9300-24T-E_VI.xlsx
+++ b/C9300-24T-E_VI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\Phú Cường\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765173FE-0C97-420E-BA9F-7B0417B375F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4192F6-236D-4520-BF96-2050BBCBC573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C9300-24T-E" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Thông số kỹ thuật</t>
   </si>
@@ -105,9 +105,6 @@
     <t xml:space="preserve">Power </t>
   </si>
   <si>
-    <t>12 tháng</t>
-  </si>
-  <si>
     <t>Số Jumbo frames</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>Cấu hình</t>
-  </si>
-  <si>
-    <t>Bảo hành phần cứng</t>
   </si>
   <si>
     <t>24 cổng Data 1G</t>
@@ -637,67 +631,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -705,15 +699,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -721,39 +715,39 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2">
         <v>32000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -761,7 +755,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -769,23 +763,23 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2">
         <v>5120</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>5120</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -793,7 +787,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
@@ -801,39 +795,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" ht="84" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -841,7 +835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -849,7 +843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -857,50 +851,42 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="28" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/C9300-24T-E_VI.xlsx
+++ b/C9300-24T-E_VI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\Phú Cường\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\spec pc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4192F6-236D-4520-BF96-2050BBCBC573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE612702-BEA0-4991-AB21-03DCBDA60839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C9300-24T-E" sheetId="1" r:id="rId1"/>
